--- a/lab3/zad1.xlsx
+++ b/lab3/zad1.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>dawka</t>
   </si>
@@ -33,6 +33,24 @@
   </si>
   <si>
     <t>ni</t>
+  </si>
+  <si>
+    <t>mediana</t>
+  </si>
+  <si>
+    <t>srednia</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>dolny kwartyl</t>
+  </si>
+  <si>
+    <t>gorny kwartyl</t>
   </si>
 </sst>
 </file>
@@ -114,6 +132,870 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$G$2:$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3,5 - 6,5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6,5 - 9,5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9,5 - 12,5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12,5 - 15,5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15,5 - 18,5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18,5 - 21,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:overlap val="-27"/>
+        <c:axId val="447176616"/>
+        <c:axId val="447177792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="447176616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447177792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="447177792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447176616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -379,18 +1261,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -400,8 +1284,26 @@
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -418,8 +1320,28 @@
         <f t="array" ref="F2:F7">FREQUENCY(B2:B33,E2:E7)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="str">
+        <f>D2&amp;" - "&amp;E2</f>
+        <v>3,5 - 6,5</v>
+      </c>
+      <c r="H2">
+        <f>MEDIAN(B2:B33)</f>
+        <v>13.5</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(B2:B33)</f>
+        <v>13.1875</v>
+      </c>
+      <c r="J2">
+        <f>MIN(B2:B33)</f>
+        <v>4</v>
+      </c>
+      <c r="K2">
+        <f>MAX(B2:B33)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,8 +1357,12 @@
       <c r="F3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G7" si="0">D3&amp;" - "&amp;E3</f>
+        <v>6,5 - 9,5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -452,8 +1378,12 @@
       <c r="F4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>9,5 - 12,5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -469,8 +1399,12 @@
       <c r="F5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>12,5 - 15,5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -486,8 +1420,12 @@
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>15,5 - 18,5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -503,8 +1441,12 @@
       <c r="F7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>18,5 - 21,5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -512,7 +1454,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -520,7 +1462,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -528,7 +1470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -536,7 +1478,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -544,7 +1486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -552,7 +1494,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -560,7 +1502,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -568,7 +1510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -715,5 +1657,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>